--- a/DataIA.xlsx
+++ b/DataIA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="9580" windowWidth="21580" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="13180" windowWidth="16880" windowHeight="9300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataIA.xlsx
+++ b/DataIA.xlsx
@@ -121,9 +121,6 @@
     <t>Img srcs:</t>
   </si>
   <si>
-    <t>https://hb.511ia.org/</t>
-  </si>
-  <si>
     <t>Critical disruption</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>//*[@id="layerSelector"]/ul/li[13]</t>
+  </si>
+  <si>
+    <t>http://crc-prod-ia-wf-elb-1936654827.us-west-2.elb.amazonaws.com/</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -594,7 +594,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://hb.511ia.org/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -664,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -697,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -730,10 +730,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -741,10 +741,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,10 +752,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,7 +766,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -800,26 +800,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -832,10 +832,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">

--- a/DataIA.xlsx
+++ b/DataIA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="13180" windowWidth="16880" windowHeight="9300" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="1260" windowWidth="24860" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -515,12 +515,12 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataIA.xlsx
+++ b/DataIA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1260" windowWidth="24860" windowHeight="13940" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="19460" yWindow="640" windowWidth="18680" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataIA.xlsx
+++ b/DataIA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="19460" yWindow="640" windowWidth="18680" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="19460" yWindow="640" windowWidth="18680" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>//*[@id="layerSelector"]/ul/li[13]</t>
   </si>
   <si>
-    <t>http://crc-prod-ia-wf-elb-1936654827.us-west-2.elb.amazonaws.com/</t>
+    <t>crc-prod-ia-wf-elb-674642517.us-west-2.elb.amazonaws.com</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataIA.xlsx
+++ b/DataIA.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataIA.xlsx
+++ b/DataIA.xlsx
@@ -172,7 +172,7 @@
     <t>//*[@id="layerSelector"]/ul/li[13]</t>
   </si>
   <si>
-    <t>crc-prod-ia-wf-elb-674642517.us-west-2.elb.amazonaws.com</t>
+    <t>http://crc-prod-ia-wf-elb-674642517.us-west-2.elb.amazonaws.com</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://hb.511ia.org/"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://crc-prod-ia-wf-elb-674642517.us-west-2.elb.amazonaws.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
